--- a/proto-packer/Level.xlsx
+++ b/proto-packer/Level.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitlab\wordslices\docs\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\proto-packer\proto-packer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B584" sqref="B584:B603"/>
+      <selection pane="bottomLeft" activeCell="A582" sqref="A582:XFD582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -10463,19 +10463,19 @@
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="2">
-        <v>16000579</v>
+        <v>16000577</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C582" s="2">
-        <v>11000579</v>
+        <v>11000577</v>
       </c>
       <c r="D582" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E582" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="583" spans="1:5">
